--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_0_35.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_0_35.xlsx
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>30444.73951962021</v>
+        <v>1919760.473540591</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>30444.73951962021</v>
+        <v>1919760.473540591</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1341119783.871407</v>
+        <v>52318301.20520706</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11715.63211119407</v>
+        <v>1101954.910291021</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>23431.26422238816</v>
+        <v>2203909.82058204</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>35146.89633358223</v>
+        <v>3305864.730873062</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>48084.40139961797</v>
+        <v>4341612.678209895</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>61021.90646565368</v>
+        <v>5377360.625546728</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>73959.41153168939</v>
+        <v>6413108.572883558</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>86896.9165977251</v>
+        <v>7448856.520220385</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>99834.42166376085</v>
+        <v>8484604.467557212</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>112771.9267297966</v>
+        <v>9520352.414894041</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>124849.8211914501</v>
+        <v>10597601.95235704</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>136694.8591978549</v>
+        <v>11699556.86264806</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>148539.8972042596</v>
+        <v>12801511.77293909</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>160384.9352106643</v>
+        <v>13903466.68323012</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>173334.6794396846</v>
+        <v>14938244.35257966</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>187383.4771489483</v>
+        <v>15857407.4886261</v>
       </c>
     </row>
   </sheetData>
